--- a/biology/Botanique/Palicourea_violacea/Palicourea_violacea.xlsx
+++ b/biology/Botanique/Palicourea_violacea/Palicourea_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea violacea est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
-Il est connu au Suriname sous le nom de Kantamasi (Saramaka)[6],
-et en Équateur comme Umayuk amiruka (Quichua)[7].
+Il est connu au Suriname sous le nom de Kantamasi (Saramaka),
+et en Équateur comme Umayuk amiruka (Quichua).
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée en propose la description suivante de Palicourea violacea :
 « [NALETONIA] violacea Brem. (Nonatelia v. Aubl., Palicourea v. Rich.). Glabre ou presque à Jeunes rameaux comprimés ; feullles de ,0,15-0;20 sur 0,04-0,07, pétiolées elliptiques acuminées-caudées, aiguës ou en coin à la base, glabres et luisantes sur les 2 faces, avec nombreuses nervures saillantes en dessus et alternant avec d'autres plus fines, stipules de 0,02, oblongues multillervées ; panicules pédonculées, à ramifications en général verticillées par 4, bractées linéaires ciliées, fleurs sessiles blanches ou d'un violet pâle avec 2 très petites bractéoles, calice à segments triangulaires, corolle étroite à tube de 7 mm. et lobes de 4, siyle inclus ou exsert ; fruit de 7 mm., ovoïde. - Herbier Lemée : Mathoury. »
-— Albert Lemée, 1953.[8]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea violacea est présent de l'Amérique centrale au Brésil, en passant par la Colombie, Trinidad, le Venezuela, le Guyana, le Suriname, et la Guyane, l'Équateur, et le Pérou.
 </t>
@@ -576,7 +592,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea violacea est largement méconnu
 </t>
@@ -607,9 +625,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea violacea sous le nom de Nonatelia violacea et en a proposé le protologue suivant[9] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea violacea sous le nom de Nonatelia violacea et en a proposé le protologue suivant : 
 « 5. NONATELIA (violacea) foliis amplis, ovatis, acutis calicis florum involucro tetraphyllo ; fructu violaceo. ( Tabula 73.)
 Frutex trunco quadri aut quinque-pedali, ad ſummitatem ramoſo. Rami nodoſi. Folia ampla, ovato-oblonga, acuta, glabra, integerrima, brevi petiolata. Stipulæ binæ, deciduæ, oppoſitæ, oblongæ, obtuse, una ab utroque latere ad baſim petiolorum. Flores racemoſi, terminales; racemus violaceus. Involucrum calicis tetraphyllum ; foliolis longis, anguftis, acutis. Corolla alba. Bacca violacea, decemſtriata, quinquelocularis.'
 Habitat in ſylvis comitatûs de Gêne.
